--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_540.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_540.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32059-d244420-Reviews-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>81</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Motel-6-Los-Angeles-Bellflower.h1037703.Hotel-Information?chkin=6%2F27%2F2018&amp;chkout=6%2F28%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1529085231706&amp;cancellable=false&amp;regionId=178280&amp;vip=false&amp;c=e1356bde-55d2-43ab-993d-6d68564d6d68&amp;mctc=9&amp;exp_dp=75.99&amp;exp_ts=1529085232557&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_540.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_540.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="333">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,879 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r579555398-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>32059</t>
+  </si>
+  <si>
+    <t>244420</t>
+  </si>
+  <si>
+    <t>579555398</t>
+  </si>
+  <si>
+    <t>05/11/2018</t>
+  </si>
+  <si>
+    <t>Very convenient</t>
+  </si>
+  <si>
+    <t>The location is right next to eating places I could walk to. We didn't have to worry about where to get breakfast. We had to stay over night to go on a cruise. The bed was comfortable and I had a good night. Housekeepers were friendly.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r578024738-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>578024738</t>
+  </si>
+  <si>
+    <t>05/05/2018</t>
+  </si>
+  <si>
+    <t>Friendliest motel 6 around</t>
+  </si>
+  <si>
+    <t>Great staff,great mgmt,takes care of all your needs right away love it and love the staff thank you for making our stay great.if I could I would take the whole entire staff out to reward them of their AWESOME SERVICE thank you again motel 6 bellflower for making our stay great.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r576355391-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>576355391</t>
+  </si>
+  <si>
+    <t>04/28/2018</t>
+  </si>
+  <si>
+    <t>Okay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We booked a room in Motel6 for our first night in the US before we could pick up our motorhome the next day at the other side of the motel.. It was clean and everything was fine for our one night stay </t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r564907903-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>564907903</t>
+  </si>
+  <si>
+    <t>03/06/2018</t>
+  </si>
+  <si>
+    <t>Great Staff. Clean Rooms. I've been coming off and on 10 years+.</t>
+  </si>
+  <si>
+    <t>I love this location of Motel 6! Here's why: 1. Staff, always courteous, quick, kind. Today, I was helped by the beautiful "TJ", and the fabulous Nicola. Nice ladies! "TJ" is the assistant manager, I think. They know their stuff. They make things quick and easy.  2. CLEAN ROOMS.  I've been coming here 10+ years, and I must say: Always clean. Friendly staff. If I need clean extra towels and stuff, they make it happen! 3. 91 Freeway adjacent (makes it easy to get to). Once inside your room, it's quiet. You can sleep. In the morning, there's coffee in the lobby. Keep it up! I will definately be back!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I love this location of Motel 6! Here's why: 1. Staff, always courteous, quick, kind. Today, I was helped by the beautiful "TJ", and the fabulous Nicola. Nice ladies! "TJ" is the assistant manager, I think. They know their stuff. They make things quick and easy.  2. CLEAN ROOMS.  I've been coming here 10+ years, and I must say: Always clean. Friendly staff. If I need clean extra towels and stuff, they make it happen! 3. 91 Freeway adjacent (makes it easy to get to). Once inside your room, it's quiet. You can sleep. In the morning, there's coffee in the lobby. Keep it up! I will definately be back!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r561839085-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>561839085</t>
+  </si>
+  <si>
+    <t>02/20/2018</t>
+  </si>
+  <si>
+    <t>GREAT SERVICE AND VERY CLEAN!!</t>
+  </si>
+  <si>
+    <t>Love this motel! It is very very clean. The staff is very nice, especially Trina and Halmberto (pronounced Ume-Burto) Everyonr is very Kind, very nice location neer nice shopping center, only about 2 miles away from the beautiful Lakewood Mall! Theater, Wal-Mart, 91 Freeway! Very convenient. My stay here was very pleasant. I will be back! Come here. Also nice affordable prices for a 2 bed!</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r560695768-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>560695768</t>
+  </si>
+  <si>
+    <t>02/15/2018</t>
+  </si>
+  <si>
+    <t>Impeccable Customer Service</t>
+  </si>
+  <si>
+    <t>This is by far my favorite Motel to visit from the Sanitation, Comfort &amp; Security I recommend this location to both my family and friends. From Management (TJ) on down to the CSR'S MAIRA &amp; NANCY as well as Housekeeping!!!!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r530598958-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>530598958</t>
+  </si>
+  <si>
+    <t>10/06/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business </t>
+  </si>
+  <si>
+    <t>My stay at Motel 6 Bellflower is always a pleasant supportive stay. The staff and Management are always there for any and all problems. Thanx yiu guys. Rooms are clean and comfortable and local food and clothing stores plus a check cashing outlet forvthose that requires it.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r526432201-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>526432201</t>
+  </si>
+  <si>
+    <t>09/21/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extended family stay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was Comfortable and pleased with all Customer Service Attendants. Everyone Employed At Motel 6 In bellflower Were very courteous and Helpfull as possible to Myself and My Family during our Month long stay .I would stay again and will  Refer friend's to stay at Motel6 in bellflower ca. I can honestly say I enjoyed my stay here .SPECIAL THANKS TO ALL NIGHT CREW Very helpful Friendly from Clerks To Security Guards </t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r525006826-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>525006826</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t>Good quality room.</t>
+  </si>
+  <si>
+    <t>I got a standard room with a queen bed and stayed for about three days.  It was one of those adjoining rooms with an access door to the adjacent room.  I even liked the orange accent wall.  Although I liked the room, I hated being in this adjoining room.  It made thin walls even thinner.  Even at normal volume levels you can hear everything, it made for no privacy.  Great Air conditioner, I can’t say enough about the AC unit.  I hated the Bed.  The mattress was very hard and too uncomfortable.  Nice pool, made it a fun stay.  I needed an iron and ironing board which wasn’t in the room but the front dest had one and for me to take to my room.  But the room didn’t come with a hair dryer.  Having a McDonald’s right next door was very helpful.  I hated having to walk up and down stairs to get ice.  They should have one on ever floor, because one of the employees was using all the ice to fill up his ice chest. Easy access right off the 91 freeway at Downey, Ave.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>I got a standard room with a queen bed and stayed for about three days.  It was one of those adjoining rooms with an access door to the adjacent room.  I even liked the orange accent wall.  Although I liked the room, I hated being in this adjoining room.  It made thin walls even thinner.  Even at normal volume levels you can hear everything, it made for no privacy.  Great Air conditioner, I can’t say enough about the AC unit.  I hated the Bed.  The mattress was very hard and too uncomfortable.  Nice pool, made it a fun stay.  I needed an iron and ironing board which wasn’t in the room but the front dest had one and for me to take to my room.  But the room didn’t come with a hair dryer.  Having a McDonald’s right next door was very helpful.  I hated having to walk up and down stairs to get ice.  They should have one on ever floor, because one of the employees was using all the ice to fill up his ice chest. Easy access right off the 91 freeway at Downey, Ave.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r475740692-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>475740692</t>
+  </si>
+  <si>
+    <t>04/15/2017</t>
+  </si>
+  <si>
+    <t>Three is the average of one and five</t>
+  </si>
+  <si>
+    <t>This is a hard review to write.  Five stars to hard-working staff who must have nerves of steel and stiff drinks when they go home after their shifts.  Five stars to TV that works well, to the microwave (adjacent to lobby), and to mountains of free ice.  Five stars to an unbeatable location just off the 91 Freeway, and to a very reasonable price compared to just about any other habitable place in that suburban area.  Perfectly functioning aircon, too.
+But (and you knew this was coming):  one star to something I absolutely cannot write directly about but because it strongly affected my stay, I'm going to skirt around it and let you decide.  My room faced the pool.  All day, and until the pool closed, the noise was astonishing.  It's great for kids to have fun, really it is, but it was hard to figure out why it had to be like that.  Then it hit me:  maybe some of these folks are living in the motel permanently or long-term?  And then the same thing from rooms near me and above me.  How is it that everyone seemed to know each other?  All right ...
+Hallway and corridor meetings?  With security?  It's important for me to be fair about this:  *I didn't ask anyone at the front desk about this* but I sure would have liked to know what percentage of the motel guests were long-term.  
+One star to...This is a hard review to write.  Five stars to hard-working staff who must have nerves of steel and stiff drinks when they go home after their shifts.  Five stars to TV that works well, to the microwave (adjacent to lobby), and to mountains of free ice.  Five stars to an unbeatable location just off the 91 Freeway, and to a very reasonable price compared to just about any other habitable place in that suburban area.  Perfectly functioning aircon, too.But (and you knew this was coming):  one star to something I absolutely cannot write directly about but because it strongly affected my stay, I'm going to skirt around it and let you decide.  My room faced the pool.  All day, and until the pool closed, the noise was astonishing.  It's great for kids to have fun, really it is, but it was hard to figure out why it had to be like that.  Then it hit me:  maybe some of these folks are living in the motel permanently or long-term?  And then the same thing from rooms near me and above me.  How is it that everyone seemed to know each other?  All right ...Hallway and corridor meetings?  With security?  It's important for me to be fair about this:  *I didn't ask anyone at the front desk about this* but I sure would have liked to know what percentage of the motel guests were long-term.  One star to WiFi, which was basically hopeless.  Five stars to the front desk persons who owned up to this problem and tolerated (indulged) me by asking their technician to re-boot the server.  This was beyond frustrating.  And finally, when I checked in, the room I was assigned seemed still to be occupied.  Had to change that right away, without question of course.I note that of  the 37 five-star Excellent reviews given to this outlet of Motel 6 before mine, the great majority (34+) are from persons whose home address is listed as being at or near the motel, and who have done one or at most two reviews, only of this motel.   Well, not mine.  I am a great believer in the Motel 6 chain, even though I was told from this and the previous one I used that they no longer offer AARP discount, having replaced it with "senior".  Quality is going to vary.  But with all due respect to a fully professional staff that did everything they could to make my short stay a decent one, I think even three stars is generous.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>This is a hard review to write.  Five stars to hard-working staff who must have nerves of steel and stiff drinks when they go home after their shifts.  Five stars to TV that works well, to the microwave (adjacent to lobby), and to mountains of free ice.  Five stars to an unbeatable location just off the 91 Freeway, and to a very reasonable price compared to just about any other habitable place in that suburban area.  Perfectly functioning aircon, too.
+But (and you knew this was coming):  one star to something I absolutely cannot write directly about but because it strongly affected my stay, I'm going to skirt around it and let you decide.  My room faced the pool.  All day, and until the pool closed, the noise was astonishing.  It's great for kids to have fun, really it is, but it was hard to figure out why it had to be like that.  Then it hit me:  maybe some of these folks are living in the motel permanently or long-term?  And then the same thing from rooms near me and above me.  How is it that everyone seemed to know each other?  All right ...
+Hallway and corridor meetings?  With security?  It's important for me to be fair about this:  *I didn't ask anyone at the front desk about this* but I sure would have liked to know what percentage of the motel guests were long-term.  
+One star to...This is a hard review to write.  Five stars to hard-working staff who must have nerves of steel and stiff drinks when they go home after their shifts.  Five stars to TV that works well, to the microwave (adjacent to lobby), and to mountains of free ice.  Five stars to an unbeatable location just off the 91 Freeway, and to a very reasonable price compared to just about any other habitable place in that suburban area.  Perfectly functioning aircon, too.But (and you knew this was coming):  one star to something I absolutely cannot write directly about but because it strongly affected my stay, I'm going to skirt around it and let you decide.  My room faced the pool.  All day, and until the pool closed, the noise was astonishing.  It's great for kids to have fun, really it is, but it was hard to figure out why it had to be like that.  Then it hit me:  maybe some of these folks are living in the motel permanently or long-term?  And then the same thing from rooms near me and above me.  How is it that everyone seemed to know each other?  All right ...Hallway and corridor meetings?  With security?  It's important for me to be fair about this:  *I didn't ask anyone at the front desk about this* but I sure would have liked to know what percentage of the motel guests were long-term.  One star to WiFi, which was basically hopeless.  Five stars to the front desk persons who owned up to this problem and tolerated (indulged) me by asking their technician to re-boot the server.  This was beyond frustrating.  And finally, when I checked in, the room I was assigned seemed still to be occupied.  Had to change that right away, without question of course.I note that of  the 37 five-star Excellent reviews given to this outlet of Motel 6 before mine, the great majority (34+) are from persons whose home address is listed as being at or near the motel, and who have done one or at most two reviews, only of this motel.   Well, not mine.  I am a great believer in the Motel 6 chain, even though I was told from this and the previous one I used that they no longer offer AARP discount, having replaced it with "senior".  Quality is going to vary.  But with all due respect to a fully professional staff that did everything they could to make my short stay a decent one, I think even three stars is generous.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r475172661-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>475172661</t>
+  </si>
+  <si>
+    <t>04/12/2017</t>
+  </si>
+  <si>
+    <t>Nasty</t>
+  </si>
+  <si>
+    <t>You only will get newly painted walls and soap with toilet paper. Room had a note that it was cleaned... well towels were used with hair and body fluids. Bed sheets were used with stains. All I needed a shower and clean bed to sleep on; and I was disappointed big time. Never will stay at Motel 6 again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r469256937-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>469256937</t>
+  </si>
+  <si>
+    <t>03/21/2017</t>
+  </si>
+  <si>
+    <t>Great Managment</t>
+  </si>
+  <si>
+    <t>This Motel 6 location is amazing. They have big swimming pool and palm trees for a real California feel.  After many disappointing motel stays over the years I can say this staff is managed the best.  They are friendly and efficient.  Rooms are big and some allow pets and/or smoking.  Lastly the price to value can't be beat in expensive California.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Los Angeles - Bellflower, responded to this reviewResponded March 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 22, 2017</t>
+  </si>
+  <si>
+    <t>This Motel 6 location is amazing. They have big swimming pool and palm trees for a real California feel.  After many disappointing motel stays over the years I can say this staff is managed the best.  They are friendly and efficient.  Rooms are big and some allow pets and/or smoking.  Lastly the price to value can't be beat in expensive California.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r443618051-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>443618051</t>
+  </si>
+  <si>
+    <t>12/11/2016</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>The Motel was in the right location where I needed to be for my business trip. I will be back. The night clerk, Jody was professional and friendly. My room was clean and cozy.  It was very convenient to LA.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r431313744-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>431313744</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>5 star for economy rooms!</t>
+  </si>
+  <si>
+    <t>I have been staying her for years 3-5 days a month. Awesome friendly staff everyone is busy doing their jobs always with a smile. Clean clean clean. Nice pool. Great staff. Have tried other local motels..... NEVER AGAIN. I trust Motel 6 on Bellflower. Love the price. Love the staff. ( ps low turnover of staff means good mamagement! ⭐⭐⭐⭐⭐⭐</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r430135241-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>430135241</t>
+  </si>
+  <si>
+    <t>10/20/2016</t>
+  </si>
+  <si>
+    <t>Very Nice, Clean, Safe Location with excellent staff and best Motel6 Rooms!</t>
+  </si>
+  <si>
+    <t>I have stay a few times here and always had a terrific stay! You go there knowing it's a Motel6 and will be minimums! This MT6 is just wonderful, the buildings are nicely arrange with courtyard in the center and grass trees. Elevators for upper flows, and more than enough parking! Staff is always so kind and accommodating. All  the staff offer hello's and smiles. Location is older part of community and MT6 appears as a modern focal point as it is a newly built property. It is SAFE there and there is alot of restaurants in the immediate area. Freeway is right there too. Get to L.A. or LAX, Orange County less then 30 mins. Very quiet and people there(guest) are polite too!  I like it!!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>I have stay a few times here and always had a terrific stay! You go there knowing it's a Motel6 and will be minimums! This MT6 is just wonderful, the buildings are nicely arrange with courtyard in the center and grass trees. Elevators for upper flows, and more than enough parking! Staff is always so kind and accommodating. All  the staff offer hello's and smiles. Location is older part of community and MT6 appears as a modern focal point as it is a newly built property. It is SAFE there and there is alot of restaurants in the immediate area. Freeway is right there too. Get to L.A. or LAX, Orange County less then 30 mins. Very quiet and people there(guest) are polite too!  I like it!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r388516688-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>388516688</t>
+  </si>
+  <si>
+    <t>07/02/2016</t>
+  </si>
+  <si>
+    <t>Great Staff, Clean, True to 'Be Our Guess!'</t>
+  </si>
+  <si>
+    <t>Convenient to shopping areas, fast foods, quiet laundry mats and freeway is located in a central place.  The stay here is a great experience, nice and quiet. You are well taken care of by the staff's hospitality, smiles, great attitudes, approachable and very helpful.</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r381251525-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>381251525</t>
+  </si>
+  <si>
+    <t>06/09/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Awesome place I love it </t>
+  </si>
+  <si>
+    <t>Very nice place and very quite it is very clean place for family to stay very nice area got places to eat at the rooms r very clean and the staff is the best never have to wait for my room. It's easy to catch the freeway from the place I do recommend people to stay here you will like your stay here</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r380274494-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>380274494</t>
+  </si>
+  <si>
+    <t>06/06/2016</t>
+  </si>
+  <si>
+    <t>Motel stay</t>
+  </si>
+  <si>
+    <t>Quiet convenient area,very cool staff all around i never had to wait to long for anything i seem to need. rooms are clean and spacious for my needs. Nice cool eateries and clothing stores,shoes beauty salons barbering and styling. Check cashing and nice Restaraunts.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r337752111-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>337752111</t>
+  </si>
+  <si>
+    <t>01/05/2016</t>
+  </si>
+  <si>
+    <t>Standard but very nice staff</t>
+  </si>
+  <si>
+    <t>We stayed twice at this property on different days of our road trip. Rooms are standard with nice comfy beds. Ambiance, cleanliness and maintenance were good. No complaints at all. Everything in the room (TV, AC, lamps, bed, chair, running desk) and bath &amp; toilet worked perfectly fine. Ample parking, next to many food joints, restaurants, shops and gas station. Wifi is not free but on our second visit we were offered free wi-fi.Staff at reception was really friendly, prompt and helpful. Lady named Daisy was really knowledgeable. Complimentary coffee is available in morning. I would not hesitate in recommending this particular property.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r328410593-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>328410593</t>
+  </si>
+  <si>
+    <t>11/22/2015</t>
+  </si>
+  <si>
+    <t>Staff was super nice but GM was very passive to honest complaints.</t>
+  </si>
+  <si>
+    <t>I spent over 70 days straight in same room 325. When I made complaints about being charged tax to Daisy apparently she did not inform management. I then was told by her that in order for me to stay I would have to us my girlfriends Id per there 28 day policy. I explained no one had made me do this before and it seemed funny that since I made complaints about crack heads outside my door and being charged tax that now I'm being harassed. I said it would be fraudulent to use my girlfriends Id because she wasn't staying there. I contacted home office I was told I had to leave because of the 28 day policy.T.J. seemed to not be informed of any of these things because she said she was out of town but still told me I had to leave. I informed them under California Law they were supposed to refund my tax and were illegally evicting me. Didn't seem to matter. I was made to leave.I spent weeks playing email tag with T.J. and their GM named Rick Patel who I'm sure is Racek Patel or whatever name he uses. They finally sent me a check refunding my tax proving that I had been there the time I stated and that I was officially a resident. They tried to give me a every excuse to keep me from getting this money back. The we...I spent over 70 days straight in same room 325. When I made complaints about being charged tax to Daisy apparently she did not inform management. I then was told by her that in order for me to stay I would have to us my girlfriends Id per there 28 day policy. I explained no one had made me do this before and it seemed funny that since I made complaints about crack heads outside my door and being charged tax that now I'm being harassed. I said it would be fraudulent to use my girlfriends Id because she wasn't staying there. I contacted home office I was told I had to leave because of the 28 day policy.T.J. seemed to not be informed of any of these things because she said she was out of town but still told me I had to leave. I informed them under California Law they were supposed to refund my tax and were illegally evicting me. Didn't seem to matter. I was made to leave.I spent weeks playing email tag with T.J. and their GM named Rick Patel who I'm sure is Racek Patel or whatever name he uses. They finally sent me a check refunding my tax proving that I had been there the time I stated and that I was officially a resident. They tried to give me a every excuse to keep me from getting this money back. The we didn't know,you checked in out and you just slipped under the radar lies. I have filed suit in this matter for Unlawful eviction and retaliation they have refused to disclose the owner of the motels name after several emails. One thing I will say is Saint,Umberto,Maira,the 2 security guards and the maintenance staff are some of the nicest employees I have met at any motel 6. Overall this motel is one of the better for the value. I just was treated very poorly by management after making legitimate complaints. I honestly liked the staff they were very nice to my son.  Daisy is the only staff member who had a poor attitude and actually laughed when they told me I had to leave. She seems to think she is better than the people that pay for her to have a job.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>I spent over 70 days straight in same room 325. When I made complaints about being charged tax to Daisy apparently she did not inform management. I then was told by her that in order for me to stay I would have to us my girlfriends Id per there 28 day policy. I explained no one had made me do this before and it seemed funny that since I made complaints about crack heads outside my door and being charged tax that now I'm being harassed. I said it would be fraudulent to use my girlfriends Id because she wasn't staying there. I contacted home office I was told I had to leave because of the 28 day policy.T.J. seemed to not be informed of any of these things because she said she was out of town but still told me I had to leave. I informed them under California Law they were supposed to refund my tax and were illegally evicting me. Didn't seem to matter. I was made to leave.I spent weeks playing email tag with T.J. and their GM named Rick Patel who I'm sure is Racek Patel or whatever name he uses. They finally sent me a check refunding my tax proving that I had been there the time I stated and that I was officially a resident. They tried to give me a every excuse to keep me from getting this money back. The we...I spent over 70 days straight in same room 325. When I made complaints about being charged tax to Daisy apparently she did not inform management. I then was told by her that in order for me to stay I would have to us my girlfriends Id per there 28 day policy. I explained no one had made me do this before and it seemed funny that since I made complaints about crack heads outside my door and being charged tax that now I'm being harassed. I said it would be fraudulent to use my girlfriends Id because she wasn't staying there. I contacted home office I was told I had to leave because of the 28 day policy.T.J. seemed to not be informed of any of these things because she said she was out of town but still told me I had to leave. I informed them under California Law they were supposed to refund my tax and were illegally evicting me. Didn't seem to matter. I was made to leave.I spent weeks playing email tag with T.J. and their GM named Rick Patel who I'm sure is Racek Patel or whatever name he uses. They finally sent me a check refunding my tax proving that I had been there the time I stated and that I was officially a resident. They tried to give me a every excuse to keep me from getting this money back. The we didn't know,you checked in out and you just slipped under the radar lies. I have filed suit in this matter for Unlawful eviction and retaliation they have refused to disclose the owner of the motels name after several emails. One thing I will say is Saint,Umberto,Maira,the 2 security guards and the maintenance staff are some of the nicest employees I have met at any motel 6. Overall this motel is one of the better for the value. I just was treated very poorly by management after making legitimate complaints. I honestly liked the staff they were very nice to my son.  Daisy is the only staff member who had a poor attitude and actually laughed when they told me I had to leave. She seems to think she is better than the people that pay for her to have a job.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r328243291-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>328243291</t>
+  </si>
+  <si>
+    <t>11/21/2015</t>
+  </si>
+  <si>
+    <t>Just got away...!</t>
+  </si>
+  <si>
+    <t>Could never go wrong by choosing motel 6 in Downey. Everytime we stay there we get the best service always feel so welcome. And now with the new tv. Channels way better. My kids loved that... My kids and I love the pool. I love the fact that you get free ice and you get to use the microwave for free. You can wash at whatever time day and night.... love it</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r309094133-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>309094133</t>
+  </si>
+  <si>
+    <t>09/10/2015</t>
+  </si>
+  <si>
+    <t>"Awesome management, exceptional staff"</t>
+  </si>
+  <si>
+    <t>I am a businessman, and travel daily to different cities and communities in SouthernCalifornia every day. Since Blackstone bought the Motel chain, and remodeled the rooms, it is a completely different experience.Because almost the entire chain is remodeled, the only discerning difference between is the quality of management, cleanliness, and the customer service provided to the guests.I can say without hesitation that this is the most well managed Motel 6 in the Los Angeles area. The manager, J.T. is outstanding. With her exceptional understanding of management skills, and the forgotten art of customer service, she has put together an exceptional team. from the front desk to housekeeping, and maintenance.The exceptional individuals at the front desk, Humberto, Daisy, Mueira, and Saint are pleasant, professional, and very helpful. It takes these kind of employees to make a motel feel like home.MoreShow less</t>
+  </si>
+  <si>
+    <t>I am a businessman, and travel daily to different cities and communities in SouthernCalifornia every day. Since Blackstone bought the Motel chain, and remodeled the rooms, it is a completely different experience.Because almost the entire chain is remodeled, the only discerning difference between is the quality of management, cleanliness, and the customer service provided to the guests.I can say without hesitation that this is the most well managed Motel 6 in the Los Angeles area. The manager, J.T. is outstanding. With her exceptional understanding of management skills, and the forgotten art of customer service, she has put together an exceptional team. from the front desk to housekeeping, and maintenance.The exceptional individuals at the front desk, Humberto, Daisy, Mueira, and Saint are pleasant, professional, and very helpful. It takes these kind of employees to make a motel feel like home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r288268850-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>288268850</t>
+  </si>
+  <si>
+    <t>07/12/2015</t>
+  </si>
+  <si>
+    <t>Couple Getaway</t>
+  </si>
+  <si>
+    <t>We were in room 311 which was a Non Smoking room. We get there and it smells like smoke. The people next to us had music on day and night which made it very uncomfortable plus their kids were crying half the time. We did not appreciate that. The pool was also a big NO NO. Peoples kids were there everyday for hours. The water was disgusting. I really wanted to go in and enjoy it but kids were very disrespectful. Mothers wouldn't say anything. The room was a really good size for two. We got our towels changed every day. The staff greeted us and we're quite nice but there were some gangsters in the rooms. They said Hi to us and were pretty nice  didn't show any bad intentions. But we would of really enjoyed our stay without the neighbors and the kids in the pool.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>We were in room 311 which was a Non Smoking room. We get there and it smells like smoke. The people next to us had music on day and night which made it very uncomfortable plus their kids were crying half the time. We did not appreciate that. The pool was also a big NO NO. Peoples kids were there everyday for hours. The water was disgusting. I really wanted to go in and enjoy it but kids were very disrespectful. Mothers wouldn't say anything. The room was a really good size for two. We got our towels changed every day. The staff greeted us and we're quite nice but there were some gangsters in the rooms. They said Hi to us and were pretty nice  didn't show any bad intentions. But we would of really enjoyed our stay without the neighbors and the kids in the pool.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r281273897-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>281273897</t>
+  </si>
+  <si>
+    <t>06/18/2015</t>
+  </si>
+  <si>
+    <t>Helpful staff</t>
+  </si>
+  <si>
+    <t>I want to thank the staff of motel 6 in Bellflower for been so nice and helpful. THEY REALLY MAKE ME AND MY FAMILY VERY COMFORTABLE. I REALLY RECOMMEND THIS MOTEL 6 cause besides been nice they are also clean</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r270642755-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>270642755</t>
+  </si>
+  <si>
+    <t>05/07/2015</t>
+  </si>
+  <si>
+    <t>Great customer service</t>
+  </si>
+  <si>
+    <t>Best motel 6 I've stayed at!! Rooms were clean and beds are comfy but most of all the customer service was excellent maira at the front desk and the manager TJ made sure I needed everything to have a great time</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r257918942-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>257918942</t>
+  </si>
+  <si>
+    <t>03/05/2015</t>
+  </si>
+  <si>
+    <t>I Don't Believe the Other Reviews are Real</t>
+  </si>
+  <si>
+    <t>I've only written one other review in the last 5 years and it was for a good stay. This Motel... my butt stuck to the toilet. Enough said? Its true. I think it was from all the disinfectant spray used in the air. Do you know how the air/heat sometimes can have a musty smell? I turned it on hoping to neutralize the situation. It did not work. I had booked seven nights and did not want room service until I asked as I did not want anyone to wake me. The "rule" (their words) ...I had to accept room service every two days or could not book the room because my dog was with me. I've been traveling constantly with my dog for years and this was a first. Hospitality you say? Do you know that motel feeling when you wake up in the morning and feel greasy from a nights sleep? Yep, and my wake up call (which I did not want) was housekeeping banging the walls with the broom next door around 9:30am because that resident left early. I had very little sleep from the traffic noise. It was major. I lasted one night and said I wanted a refund. It was no problem but you would think they would have ask me why? Nada...MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>I've only written one other review in the last 5 years and it was for a good stay. This Motel... my butt stuck to the toilet. Enough said? Its true. I think it was from all the disinfectant spray used in the air. Do you know how the air/heat sometimes can have a musty smell? I turned it on hoping to neutralize the situation. It did not work. I had booked seven nights and did not want room service until I asked as I did not want anyone to wake me. The "rule" (their words) ...I had to accept room service every two days or could not book the room because my dog was with me. I've been traveling constantly with my dog for years and this was a first. Hospitality you say? Do you know that motel feeling when you wake up in the morning and feel greasy from a nights sleep? Yep, and my wake up call (which I did not want) was housekeeping banging the walls with the broom next door around 9:30am because that resident left early. I had very little sleep from the traffic noise. It was major. I lasted one night and said I wanted a refund. It was no problem but you would think they would have ask me why? Nada...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r255500776-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>255500776</t>
+  </si>
+  <si>
+    <t>02/20/2015</t>
+  </si>
+  <si>
+    <t>satisfied customer</t>
+  </si>
+  <si>
+    <t>i just wanted to say how great I think motel 6 on bellflower has been. The employees have treated myself and my family with courtesy and respect. we had a situation with regard to our room and TJ handled everything in a timely manner and we were very satisfied with the end result. This has truly been a great experience and I would recommend anyone to stay there.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r251518607-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>251518607</t>
+  </si>
+  <si>
+    <t>01/28/2015</t>
+  </si>
+  <si>
+    <t>great service</t>
+  </si>
+  <si>
+    <t>this hotel was great...the employees were so nice and helpful especially T.J. she made my families' stay the best in all of our travels. The rooms were nice and clean and the staff was courteous and respectful. All of our needs were taken care of. We will definitely visit again.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r251398275-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>251398275</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
+  <si>
+    <t>Excellent!!!!!</t>
+  </si>
+  <si>
+    <t>This ,Motel is without a doubt...the best Motel 6, I've ever stayed at...The management and the staff, are always so helpful, and polite. The rooms are clean and updated overall good experience I will recommend this motel 6 you won't be disappointed with your experience at this location the property is very nice</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r243142994-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>243142994</t>
+  </si>
+  <si>
+    <t>12/05/2014</t>
+  </si>
+  <si>
+    <t>Omg.. They really blew my mind!!! Im a professional driver and they even had truck parking,trust me ..that's rare in ca.</t>
+  </si>
+  <si>
+    <t>The staff was friendly,respectful, and very courteous.Upon entering,I thought that it would be a problem accommodating my pet dog but,Humbeno assured me that everything would be ok and it worked out fine. They go to great lengths to please  their customers. This will definitely be my "home away from home" every time I stop here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r237095520-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>237095520</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t>Typical motel 6</t>
+  </si>
+  <si>
+    <t>I like the updates to the rooms and the wifi works but it's not free. Plenty of parking.The beds are hard and uncomfortable.There's no do not disturb signs so the maids will come by and knock on your door and wake you up.No mini fridge in room just an ice machine and that's if it works.Book motel 6s at their website directly to get the best price cuz alot of travel sites will overcharge.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r236522541-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>236522541</t>
+  </si>
+  <si>
+    <t>10/27/2014</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>We stayed here only for one night. It was the last night of our 17 day trip to the west of America. In the morning we flew to Boston. Most often in our journey we rested it in a Motel 6. As in other Motels 6, the staff here was very friendly, the room was very clean.The motel is very convenient parking and it is located not very far from the airport. And the price for the room is not very expensive.Thank you.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r234780529-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>234780529</t>
+  </si>
+  <si>
+    <t>10/16/2014</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>Convenient.Close to a small shopping market and not far from retail. Front Desk wasn't to organized with communication for I had two separate reservations, paid for the second one the day of check out,and was still hounded for check out reminders. But in return they did credit me back 30% of what I paid for my trouble at check out. Cool place to stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r214776903-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>214776903</t>
+  </si>
+  <si>
+    <t>07/10/2014</t>
+  </si>
+  <si>
+    <t>This hotel is only a "deal" if you have a certain style of traveling.</t>
+  </si>
+  <si>
+    <t>The price was hard to beat. But it is a so-so area. There seems to me there are alot extended guests here. It can me a mixed crowd.  There is at times people just "chillin" out in the parking lot which surrounds the whole building. One night after getting in my car to go out ... A cop car pulls up and demands me to get out and decides to search my car while me sitting in the back of the cop car ( i had to get a selfie !)  This is fine. It just shows that this area is not the best . They mentioned they do this because they get calls about people in the parking lot. Someone I know asked me " isn't that where meth heads shoot up in the back ?" Its an area in transition. They dont have irons. Whether you choose smoking or non... Only when you go in you'll know.Thats why its cheaper. If you just need a bed&amp; shower and head out the door its a deal. Dont look for any amenities if value here.MoreShow less</t>
+  </si>
+  <si>
+    <t>The price was hard to beat. But it is a so-so area. There seems to me there are alot extended guests here. It can me a mixed crowd.  There is at times people just "chillin" out in the parking lot which surrounds the whole building. One night after getting in my car to go out ... A cop car pulls up and demands me to get out and decides to search my car while me sitting in the back of the cop car ( i had to get a selfie !)  This is fine. It just shows that this area is not the best . They mentioned they do this because they get calls about people in the parking lot. Someone I know asked me " isn't that where meth heads shoot up in the back ?" Its an area in transition. They dont have irons. Whether you choose smoking or non... Only when you go in you'll know.Thats why its cheaper. If you just need a bed&amp; shower and head out the door its a deal. Dont look for any amenities if value here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r213562866-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>213562866</t>
+  </si>
+  <si>
+    <t>07/03/2014</t>
+  </si>
+  <si>
+    <t>OH YEAH</t>
+  </si>
+  <si>
+    <t>My stay here at motel 6 was very great especially the frontdesk gsr. Humberto was very polite and helpful. also all the staff and housekeepers were very helpful when I needed anything. the parking is great big spaces for trailer and rv's near by restaurants the room was bad new tv newbeds they have a pool oh yeah and dominos pizza delivers</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r210312833-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>210312833</t>
+  </si>
+  <si>
+    <t>06/14/2014</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>My stay here has been a great experience. The staff treats you with friendliness and respect. I have had an extended stay here and everyone from housekeeping, frontdesk, maintenance and supervisors have been amazing to me. Doing everything they can to make my stay enjoyable. At the front desk Kevin, Mildred, Jamie and Maira have gone out of their way to provide me with whatever I may need to make my stay as comfortable as possible. Supervisor TJ has handled all my needs with professionalism and respect. Thank you to everyone at Bellflower,  CA Motel 6.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r197797679-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>197797679</t>
+  </si>
+  <si>
+    <t>03/17/2014</t>
+  </si>
+  <si>
+    <t>This is an amaizing motel  !</t>
+  </si>
+  <si>
+    <t>Very Polite Services and always asking how are day is , amaizing always makes someones morning (; There always helping someone when they need it . And the rooms are like spotless clean and the house keepers are very hulariouse (; would love to stay here . !!!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r196871824-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>196871824</t>
+  </si>
+  <si>
+    <t>03/10/2014</t>
+  </si>
+  <si>
+    <t>Nice friendly place.</t>
+  </si>
+  <si>
+    <t>We began using this Motel about 4 years ago.  It is convenient to everything and the room we have used met all of our needs.  Front desk staff very friendly and willing to go above and beyond to meet our needs.  Would recommend to anyone needing a centrally located place to stay in the southern Los Angeles area.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r196702014-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>196702014</t>
+  </si>
+  <si>
+    <t>03/08/2014</t>
+  </si>
+  <si>
+    <t>A Fantastic Experience!!!</t>
+  </si>
+  <si>
+    <t>I have to say that this Motel 6 has an amazing team. The way they value their customers and make sure their taken care of, makes you wish every other establishment valued their customers the same way. The staff make sure you have what you need, and i must say Mayra has excellent customer service and her Manager TJ, is awesome. She makes you feel welcome, she always has a smile on her face. My overall stay was great. The rooms are very clean and well maintained. I would recommend others to come and stay..</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r181629351-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>181629351</t>
+  </si>
+  <si>
+    <t>10/19/2013</t>
+  </si>
+  <si>
+    <t>Outstanding Service!</t>
+  </si>
+  <si>
+    <t>I am writing to thank the Manager Jorge, the Asst. Manager, TJ and the Staff for your outstanding service. My husband and I were looking for a clean, safe Motel for our family to reside in temporarily and were a bit nervous to come to Motel 6. I must admit my fears were put to rest rather quickly! Our room was clean, the service is superb and I have yet to see a bug! Jorge, the Manager is amazing! He goes out of his way to ensure you are not only a happy customer, but more important, a repeat customer. TJ, the Assistant is also wonderful and goes out of her way to make our family feel welcome! Whenever I call the office and need assistance, the staff is on it right away and makes us feel so valued, which is rare in a Motel. Thank you once again, Jorge, TJ and amazing staff, for always being so wonderful. We appreciate your service and most important, are so thankful for the security here. We always feel safe and valued. I highly recommend this Motel!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>I am writing to thank the Manager Jorge, the Asst. Manager, TJ and the Staff for your outstanding service. My husband and I were looking for a clean, safe Motel for our family to reside in temporarily and were a bit nervous to come to Motel 6. I must admit my fears were put to rest rather quickly! Our room was clean, the service is superb and I have yet to see a bug! Jorge, the Manager is amazing! He goes out of his way to ensure you are not only a happy customer, but more important, a repeat customer. TJ, the Assistant is also wonderful and goes out of her way to make our family feel welcome! Whenever I call the office and need assistance, the staff is on it right away and makes us feel so valued, which is rare in a Motel. Thank you once again, Jorge, TJ and amazing staff, for always being so wonderful. We appreciate your service and most important, are so thankful for the security here. We always feel safe and valued. I highly recommend this Motel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r181593881-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>181593881</t>
+  </si>
+  <si>
+    <t>Not the brightest bulb in the pack!</t>
+  </si>
+  <si>
+    <t>Even though I must say the price here is the lowest around, it is an excellent reminder of "You get what you pay for!" The beds were not even close to those of other Motel 6 motels. The furniture didn't give one the feeling of 'good enough to use.' The carpeting was, well I'll just call it "Rugs with a chance of black feet.' The bathroom was just 'touched up.' Stains on the sheets and the rug made me tense for the entire stay, all three of them. I had no alternative in place or I would have left and not returned each time I had done so. The rooms didn't improve, but on the bright side, they didn't get any worse. The front office staff were more like bank tellers with a side of cold, except for the one that does the late night shift. He was very professional, and I wondered what he was doing there, then! The parking lot is not the best, being next to the freeway, and the model for transient begging. Get an outside room if you can, to keep an eye on your car. The location in general, and the price was why I stayed here. It's roulette when it comes to the rooms. Keep your socks on when they leave the light on.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Motel6, Public Relations Manager at Motel 6 Los Angeles - Bellflower, responded to this reviewResponded October 22, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2013</t>
+  </si>
+  <si>
+    <t>Even though I must say the price here is the lowest around, it is an excellent reminder of "You get what you pay for!" The beds were not even close to those of other Motel 6 motels. The furniture didn't give one the feeling of 'good enough to use.' The carpeting was, well I'll just call it "Rugs with a chance of black feet.' The bathroom was just 'touched up.' Stains on the sheets and the rug made me tense for the entire stay, all three of them. I had no alternative in place or I would have left and not returned each time I had done so. The rooms didn't improve, but on the bright side, they didn't get any worse. The front office staff were more like bank tellers with a side of cold, except for the one that does the late night shift. He was very professional, and I wondered what he was doing there, then! The parking lot is not the best, being next to the freeway, and the model for transient begging. Get an outside room if you can, to keep an eye on your car. The location in general, and the price was why I stayed here. It's roulette when it comes to the rooms. Keep your socks on when they leave the light on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r173903197-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>173903197</t>
+  </si>
+  <si>
+    <t>08/25/2013</t>
+  </si>
+  <si>
+    <t>They keep the light on for me.</t>
+  </si>
+  <si>
+    <t>This ,Motel is without a doubt...the best Motel 6, I've ever stayed at...The management and the staff, are always so helpful, and polite.        Believe me if ever there was a problem...with plumbing, electrical or anything of any significence,      The management or staff are always...Johnny on the spot when it comes to solving an issue, that might arrise. These guys really do care about u ...as far as being...always riteike being and feeling ok...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r118253792-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>118253792</t>
+  </si>
+  <si>
+    <t>09/17/2011</t>
+  </si>
+  <si>
+    <t>Horrible staff and shady people everywhere!</t>
+  </si>
+  <si>
+    <t>The manager at this particular location is rude and plays favorites with his guest. He seams to cater to the people that actually live in this hotel, not those who are just visiting! The houskeepers are lazy and I had to beg for my room to get cleaned! This place is filthy with shady people, parties and loud craziness!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r91138948-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>91138948</t>
+  </si>
+  <si>
+    <t>12/30/2010</t>
+  </si>
+  <si>
+    <t>Friendly staff, clean rooms, easy freeway access</t>
+  </si>
+  <si>
+    <t>Our room was clean and neat.  The swimming pool looked attractive, although we did not use it.  During our short stay we met the manager, assistant manager, and two desk clerks--all of whom were friendly.  There is some freeway noise due to the proximity of the 91 freeway, but freeway access can also be a good thing.  There were a couple of restaurants within walking distance which was convienient.</t>
+  </si>
+  <si>
+    <t>December 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r32220084-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>32220084</t>
+  </si>
+  <si>
+    <t>06/13/2009</t>
+  </si>
+  <si>
+    <t>I'd  be better off sleeping in my dogs bed at least my dog does not have ticks</t>
+  </si>
+  <si>
+    <t>My family and My work colleagues had all ways had a plasure of the prices that Motel 6 offers that is way we allways Pick Motel 6 but in the past  year there quality that Makes them Better than other Motel is gone Down hill. they just lost a loyal guess Sorry. but is True..... no more Motel 6 for My family or Business Trips////</t>
+  </si>
+  <si>
+    <t>June 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r3703304-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>3703304</t>
+  </si>
+  <si>
+    <t>07/26/2005</t>
+  </si>
+  <si>
+    <t>At Least You Can Buy Crack There</t>
+  </si>
+  <si>
+    <t>We would have been better off staying in the trash bin located next to the parked diesels and Budwieser freeway sign.  At least the hum from the diesles running all night and 605 freeway traffic put us to sleepLove this place - after all - Its the Friendly city</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r1713873-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
+  </si>
+  <si>
+    <t>1713873</t>
+  </si>
+  <si>
+    <t>03/07/2004</t>
+  </si>
+  <si>
+    <t>No service but you get what you pay for!</t>
+  </si>
+  <si>
+    <t>I went to LA for ALL-Star Weekend (Celebrity basketball) the weekend of Feb 14th. To avoid paying $200 a night for a room in downtown LA I opted to find something in the surrounding area for cheaper. I guess you get what you pay for. When I called to get directions the front desk people didnt know how to tell me how to get there. I finally found the hotel and checked in. They had just started a new policy where you cant have visitors after 11pm and threatened to tow anyone who was not a registered guest, so each time I went in and out of the parking lot I had to give the security guard my name and room which was very fustrating considering it was only a Motel 6. When I got to the room and requested extra towels I was told I had to go down to the front desk and get them myself. When I went down to the front desk I had to wait for about 15 minutes because there was an irate woman who wanted to get her belongings out of a room she checked out of and they wouldnt let her, I finally got my towels and retired for the night, the next day when I called to get directions on how to get to downtown LA of course the front desk couldnt tell me how to get there (which was strange...I went to LA for ALL-Star Weekend (Celebrity basketball) the weekend of Feb 14th. To avoid paying $200 a night for a room in downtown LA I opted to find something in the surrounding area for cheaper. I guess you get what you pay for. When I called to get directions the front desk people didnt know how to tell me how to get there. I finally found the hotel and checked in. They had just started a new policy where you cant have visitors after 11pm and threatened to tow anyone who was not a registered guest, so each time I went in and out of the parking lot I had to give the security guard my name and room which was very fustrating considering it was only a Motel 6. When I got to the room and requested extra towels I was told I had to go down to the front desk and get them myself. When I went down to the front desk I had to wait for about 15 minutes because there was an irate woman who wanted to get her belongings out of a room she checked out of and they wouldnt let her, I finally got my towels and retired for the night, the next day when I called to get directions on how to get to downtown LA of course the front desk couldnt tell me how to get there (which was strange considering it was only about 20 minutes away) They didnt even have a pen I could borrow to write directions with. Room service only came in to throw the beds together, they only emptied our trash once in our 3 days there. Each night I had to go to the front desk to get more towels and when I did spot a housekeeping person and asked for towels I was told that I had to go to the other side of the hotel and ask another gentleman! Overall for $55.00 a night on a busy weekend I guess thats what you can expect from a Motel 6. Just be sure to come equipt with your own pen and be prepared to chase down clean towels!MoreShow less</t>
+  </si>
+  <si>
+    <t>I went to LA for ALL-Star Weekend (Celebrity basketball) the weekend of Feb 14th. To avoid paying $200 a night for a room in downtown LA I opted to find something in the surrounding area for cheaper. I guess you get what you pay for. When I called to get directions the front desk people didnt know how to tell me how to get there. I finally found the hotel and checked in. They had just started a new policy where you cant have visitors after 11pm and threatened to tow anyone who was not a registered guest, so each time I went in and out of the parking lot I had to give the security guard my name and room which was very fustrating considering it was only a Motel 6. When I got to the room and requested extra towels I was told I had to go down to the front desk and get them myself. When I went down to the front desk I had to wait for about 15 minutes because there was an irate woman who wanted to get her belongings out of a room she checked out of and they wouldnt let her, I finally got my towels and retired for the night, the next day when I called to get directions on how to get to downtown LA of course the front desk couldnt tell me how to get there (which was strange...I went to LA for ALL-Star Weekend (Celebrity basketball) the weekend of Feb 14th. To avoid paying $200 a night for a room in downtown LA I opted to find something in the surrounding area for cheaper. I guess you get what you pay for. When I called to get directions the front desk people didnt know how to tell me how to get there. I finally found the hotel and checked in. They had just started a new policy where you cant have visitors after 11pm and threatened to tow anyone who was not a registered guest, so each time I went in and out of the parking lot I had to give the security guard my name and room which was very fustrating considering it was only a Motel 6. When I got to the room and requested extra towels I was told I had to go down to the front desk and get them myself. When I went down to the front desk I had to wait for about 15 minutes because there was an irate woman who wanted to get her belongings out of a room she checked out of and they wouldnt let her, I finally got my towels and retired for the night, the next day when I called to get directions on how to get to downtown LA of course the front desk couldnt tell me how to get there (which was strange considering it was only about 20 minutes away) They didnt even have a pen I could borrow to write directions with. Room service only came in to throw the beds together, they only emptied our trash once in our 3 days there. Each night I had to go to the front desk to get more towels and when I did spot a housekeeping person and asked for towels I was told that I had to go to the other side of the hotel and ask another gentleman! Overall for $55.00 a night on a busy weekend I guess thats what you can expect from a Motel 6. Just be sure to come equipt with your own pen and be prepared to chase down clean towels!More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1521,2887 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" t="s">
+        <v>89</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" t="s">
+        <v>72</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>95</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>96</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>103</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>110</v>
+      </c>
+      <c r="O12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="n">
+        <v>1</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>122</v>
+      </c>
+      <c r="O13" t="s">
+        <v>103</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>123</v>
+      </c>
+      <c r="X13" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J14" t="s">
+        <v>128</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s">
+        <v>130</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" t="s">
+        <v>72</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>132</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" t="s">
+        <v>134</v>
+      </c>
+      <c r="K15" t="s">
+        <v>135</v>
+      </c>
+      <c r="L15" t="s">
+        <v>136</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15" t="s">
+        <v>72</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>139</v>
+      </c>
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s">
+        <v>141</v>
+      </c>
+      <c r="L16" t="s">
+        <v>142</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" t="s">
+        <v>72</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>145</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" t="s">
+        <v>147</v>
+      </c>
+      <c r="K17" t="s">
+        <v>148</v>
+      </c>
+      <c r="L17" t="s">
+        <v>149</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>150</v>
+      </c>
+      <c r="O17" t="s">
+        <v>59</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" t="s">
+        <v>154</v>
+      </c>
+      <c r="L18" t="s">
+        <v>155</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>156</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>156</v>
+      </c>
+      <c r="O19" t="s">
+        <v>103</v>
+      </c>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>163</v>
+      </c>
+      <c r="J20" t="s">
+        <v>164</v>
+      </c>
+      <c r="K20" t="s">
+        <v>165</v>
+      </c>
+      <c r="L20" t="s">
+        <v>166</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>167</v>
+      </c>
+      <c r="O20" t="s">
+        <v>168</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>4</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>169</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" t="s">
+        <v>171</v>
+      </c>
+      <c r="K21" t="s">
+        <v>172</v>
+      </c>
+      <c r="L21" t="s">
+        <v>173</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>174</v>
+      </c>
+      <c r="O21" t="s">
+        <v>59</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22" t="s">
+        <v>180</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>181</v>
+      </c>
+      <c r="O22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>182</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" t="s">
+        <v>184</v>
+      </c>
+      <c r="K23" t="s">
+        <v>185</v>
+      </c>
+      <c r="L23" t="s">
+        <v>186</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>174</v>
+      </c>
+      <c r="O23" t="s">
+        <v>72</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>189</v>
+      </c>
+      <c r="J24" t="s">
+        <v>190</v>
+      </c>
+      <c r="K24" t="s">
+        <v>191</v>
+      </c>
+      <c r="L24" t="s">
+        <v>192</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>193</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>196</v>
+      </c>
+      <c r="J25" t="s">
+        <v>197</v>
+      </c>
+      <c r="K25" t="s">
+        <v>198</v>
+      </c>
+      <c r="L25" t="s">
+        <v>199</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>200</v>
+      </c>
+      <c r="O25" t="s">
+        <v>59</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>201</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>202</v>
+      </c>
+      <c r="J26" t="s">
+        <v>203</v>
+      </c>
+      <c r="K26" t="s">
+        <v>204</v>
+      </c>
+      <c r="L26" t="s">
+        <v>205</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>206</v>
+      </c>
+      <c r="O26" t="s">
+        <v>168</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>208</v>
+      </c>
+      <c r="J27" t="s">
+        <v>209</v>
+      </c>
+      <c r="K27" t="s">
+        <v>210</v>
+      </c>
+      <c r="L27" t="s">
+        <v>211</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>212</v>
+      </c>
+      <c r="O27" t="s">
+        <v>103</v>
+      </c>
+      <c r="P27" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>215</v>
+      </c>
+      <c r="J28" t="s">
+        <v>216</v>
+      </c>
+      <c r="K28" t="s">
+        <v>217</v>
+      </c>
+      <c r="L28" t="s">
+        <v>218</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>219</v>
+      </c>
+      <c r="O28" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>220</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>221</v>
+      </c>
+      <c r="J29" t="s">
+        <v>222</v>
+      </c>
+      <c r="K29" t="s">
+        <v>223</v>
+      </c>
+      <c r="L29" t="s">
+        <v>224</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>225</v>
+      </c>
+      <c r="O29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>226</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>227</v>
+      </c>
+      <c r="J30" t="s">
+        <v>228</v>
+      </c>
+      <c r="K30" t="s">
+        <v>229</v>
+      </c>
+      <c r="L30" t="s">
+        <v>230</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>231</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>232</v>
+      </c>
+      <c r="J31" t="s">
+        <v>233</v>
+      </c>
+      <c r="K31" t="s">
+        <v>234</v>
+      </c>
+      <c r="L31" t="s">
+        <v>235</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>236</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>237</v>
+      </c>
+      <c r="J32" t="s">
+        <v>238</v>
+      </c>
+      <c r="K32" t="s">
+        <v>239</v>
+      </c>
+      <c r="L32" t="s">
+        <v>240</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>241</v>
+      </c>
+      <c r="O32" t="s">
+        <v>168</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>242</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>243</v>
+      </c>
+      <c r="J33" t="s">
+        <v>244</v>
+      </c>
+      <c r="K33" t="s">
+        <v>245</v>
+      </c>
+      <c r="L33" t="s">
+        <v>246</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>247</v>
+      </c>
+      <c r="O33" t="s">
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>248</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>249</v>
+      </c>
+      <c r="J34" t="s">
+        <v>250</v>
+      </c>
+      <c r="K34" t="s">
+        <v>251</v>
+      </c>
+      <c r="L34" t="s">
+        <v>252</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>253</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>254</v>
+      </c>
+      <c r="J35" t="s">
+        <v>255</v>
+      </c>
+      <c r="K35" t="s">
+        <v>256</v>
+      </c>
+      <c r="L35" t="s">
+        <v>257</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>259</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>260</v>
+      </c>
+      <c r="J36" t="s">
+        <v>261</v>
+      </c>
+      <c r="K36" t="s">
+        <v>262</v>
+      </c>
+      <c r="L36" t="s">
+        <v>263</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s"/>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>264</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>265</v>
+      </c>
+      <c r="J37" t="s">
+        <v>266</v>
+      </c>
+      <c r="K37" t="s">
+        <v>267</v>
+      </c>
+      <c r="L37" t="s">
+        <v>268</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>269</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>270</v>
+      </c>
+      <c r="J38" t="s">
+        <v>271</v>
+      </c>
+      <c r="K38" t="s">
+        <v>272</v>
+      </c>
+      <c r="L38" t="s">
+        <v>273</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>274</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>275</v>
+      </c>
+      <c r="J39" t="s">
+        <v>276</v>
+      </c>
+      <c r="K39" t="s">
+        <v>277</v>
+      </c>
+      <c r="L39" t="s">
+        <v>278</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>279</v>
+      </c>
+      <c r="O39" t="s">
+        <v>72</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>280</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>281</v>
+      </c>
+      <c r="J40" t="s">
+        <v>282</v>
+      </c>
+      <c r="K40" t="s">
+        <v>283</v>
+      </c>
+      <c r="L40" t="s">
+        <v>284</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>285</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>286</v>
+      </c>
+      <c r="J41" t="s">
+        <v>287</v>
+      </c>
+      <c r="K41" t="s">
+        <v>288</v>
+      </c>
+      <c r="L41" t="s">
+        <v>289</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>290</v>
+      </c>
+      <c r="O41" t="s">
+        <v>59</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>292</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>293</v>
+      </c>
+      <c r="J42" t="s">
+        <v>287</v>
+      </c>
+      <c r="K42" t="s">
+        <v>294</v>
+      </c>
+      <c r="L42" t="s">
+        <v>295</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
+        <v>296</v>
+      </c>
+      <c r="O42" t="s">
+        <v>72</v>
+      </c>
+      <c r="P42" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>1</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>2</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>297</v>
+      </c>
+      <c r="X42" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>300</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>301</v>
+      </c>
+      <c r="J43" t="s">
+        <v>302</v>
+      </c>
+      <c r="K43" t="s">
+        <v>303</v>
+      </c>
+      <c r="L43" t="s">
+        <v>304</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>305</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>306</v>
+      </c>
+      <c r="J44" t="s">
+        <v>307</v>
+      </c>
+      <c r="K44" t="s">
+        <v>308</v>
+      </c>
+      <c r="L44" t="s">
+        <v>309</v>
+      </c>
+      <c r="M44" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" t="s"/>
+      <c r="O44" t="s"/>
+      <c r="P44" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>310</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>311</v>
+      </c>
+      <c r="J45" t="s">
+        <v>312</v>
+      </c>
+      <c r="K45" t="s">
+        <v>313</v>
+      </c>
+      <c r="L45" t="s">
+        <v>314</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>315</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>316</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>317</v>
+      </c>
+      <c r="J46" t="s">
+        <v>318</v>
+      </c>
+      <c r="K46" t="s">
+        <v>319</v>
+      </c>
+      <c r="L46" t="s">
+        <v>320</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s">
+        <v>321</v>
+      </c>
+      <c r="O46" t="s">
+        <v>72</v>
+      </c>
+      <c r="P46" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>322</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>323</v>
+      </c>
+      <c r="J47" t="s">
+        <v>324</v>
+      </c>
+      <c r="K47" t="s">
+        <v>325</v>
+      </c>
+      <c r="L47" t="s">
+        <v>326</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s"/>
+      <c r="O47" t="s"/>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>25022</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>327</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>328</v>
+      </c>
+      <c r="J48" t="s">
+        <v>329</v>
+      </c>
+      <c r="K48" t="s">
+        <v>330</v>
+      </c>
+      <c r="L48" t="s">
+        <v>331</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s"/>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>332</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_540.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_540.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="376">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>zenyilucio3</t>
+  </si>
+  <si>
     <t>07/07/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>anthonyherrera060</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r578024738-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Anna_Klauke</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r576355391-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -216,6 +225,9 @@
     <t>April 2018</t>
   </si>
   <si>
+    <t>kevc212018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r564907903-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>I love this location of Motel 6! Here's why: 1. Staff, always courteous, quick, kind. Today, I was helped by the beautiful "TJ", and the fabulous Nicola. Nice ladies! "TJ" is the assistant manager, I think. They know their stuff. They make things quick and easy.  2. CLEAN ROOMS.  I've been coming here 10+ years, and I must say: Always clean. Friendly staff. If I need clean extra towels and stuff, they make it happen! 3. 91 Freeway adjacent (makes it easy to get to). Once inside your room, it's quiet. You can sleep. In the morning, there's coffee in the lobby. Keep it up! I will definately be back!More</t>
   </si>
   <si>
+    <t>Johnae G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r561839085-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>February 2018</t>
   </si>
   <si>
+    <t>klenoir04</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r560695768-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -273,6 +291,9 @@
     <t>This is by far my favorite Motel to visit from the Sanitation, Comfort &amp; Security I recommend this location to both my family and friends. From Management (TJ) on down to the CSR'S MAIRA &amp; NANCY as well as Housekeeping!!!!!</t>
   </si>
   <si>
+    <t>Biggblue2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r530598958-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -291,6 +312,9 @@
     <t>October 2017</t>
   </si>
   <si>
+    <t>Isabel G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r526432201-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -309,6 +333,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>Joseph S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r525006826-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -331,6 +358,9 @@
   </si>
   <si>
     <t>I got a standard room with a queen bed and stayed for about three days.  It was one of those adjoining rooms with an access door to the adjacent room.  I even liked the orange accent wall.  Although I liked the room, I hated being in this adjoining room.  It made thin walls even thinner.  Even at normal volume levels you can hear everything, it made for no privacy.  Great Air conditioner, I can’t say enough about the AC unit.  I hated the Bed.  The mattress was very hard and too uncomfortable.  Nice pool, made it a fun stay.  I needed an iron and ironing board which wasn’t in the room but the front dest had one and for me to take to my room.  But the room didn’t come with a hair dryer.  Having a McDonald’s right next door was very helpful.  I hated having to walk up and down stairs to get ice.  They should have one on ever floor, because one of the employees was using all the ice to fill up his ice chest. Easy access right off the 91 freeway at Downey, Ave.More</t>
+  </si>
+  <si>
+    <t>Goloh</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r475740692-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
@@ -360,6 +390,9 @@
 One star to...This is a hard review to write.  Five stars to hard-working staff who must have nerves of steel and stiff drinks when they go home after their shifts.  Five stars to TV that works well, to the microwave (adjacent to lobby), and to mountains of free ice.  Five stars to an unbeatable location just off the 91 Freeway, and to a very reasonable price compared to just about any other habitable place in that suburban area.  Perfectly functioning aircon, too.But (and you knew this was coming):  one star to something I absolutely cannot write directly about but because it strongly affected my stay, I'm going to skirt around it and let you decide.  My room faced the pool.  All day, and until the pool closed, the noise was astonishing.  It's great for kids to have fun, really it is, but it was hard to figure out why it had to be like that.  Then it hit me:  maybe some of these folks are living in the motel permanently or long-term?  And then the same thing from rooms near me and above me.  How is it that everyone seemed to know each other?  All right ...Hallway and corridor meetings?  With security?  It's important for me to be fair about this:  *I didn't ask anyone at the front desk about this* but I sure would have liked to know what percentage of the motel guests were long-term.  One star to WiFi, which was basically hopeless.  Five stars to the front desk persons who owned up to this problem and tolerated (indulged) me by asking their technician to re-boot the server.  This was beyond frustrating.  And finally, when I checked in, the room I was assigned seemed still to be occupied.  Had to change that right away, without question of course.I note that of  the 37 five-star Excellent reviews given to this outlet of Motel 6 before mine, the great majority (34+) are from persons whose home address is listed as being at or near the motel, and who have done one or at most two reviews, only of this motel.   Well, not mine.  I am a great believer in the Motel 6 chain, even though I was told from this and the previous one I used that they no longer offer AARP discount, having replaced it with "senior".  Quality is going to vary.  But with all due respect to a fully professional staff that did everything they could to make my short stay a decent one, I think even three stars is generous.More</t>
   </si>
   <si>
+    <t>OliviaPDX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r475172661-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -375,6 +408,9 @@
     <t>You only will get newly painted walls and soap with toilet paper. Room had a note that it was cleaned... well towels were used with hair and body fluids. Bed sheets were used with stains. All I needed a shower and clean bed to sleep on; and I was disappointed big time. Never will stay at Motel 6 again!</t>
   </si>
   <si>
+    <t>johnb1900s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r469256937-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -402,6 +438,9 @@
     <t>This Motel 6 location is amazing. They have big swimming pool and palm trees for a real California feel.  After many disappointing motel stays over the years I can say this staff is managed the best.  They are friendly and efficient.  Rooms are big and some allow pets and/or smoking.  Lastly the price to value can't be beat in expensive California.More</t>
   </si>
   <si>
+    <t>547earth</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r443618051-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -420,6 +459,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r431313744-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -438,6 +480,9 @@
     <t>October 2016</t>
   </si>
   <si>
+    <t>jmenvoy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r430135241-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -459,6 +504,9 @@
     <t>I have stay a few times here and always had a terrific stay! You go there knowing it's a Motel6 and will be minimums! This MT6 is just wonderful, the buildings are nicely arrange with courtyard in the center and grass trees. Elevators for upper flows, and more than enough parking! Staff is always so kind and accommodating. All  the staff offer hello's and smiles. Location is older part of community and MT6 appears as a modern focal point as it is a newly built property. It is SAFE there and there is alot of restaurants in the immediate area. Freeway is right there too. Get to L.A. or LAX, Orange County less then 30 mins. Very quiet and people there(guest) are polite too!  I like it!!More</t>
   </si>
   <si>
+    <t>luv2befittt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r388516688-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -477,6 +525,9 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>Jgarcia15</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r381251525-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -510,6 +561,9 @@
     <t>Quiet convenient area,very cool staff all around i never had to wait to long for anything i seem to need. rooms are clean and spacious for my needs. Nice cool eateries and clothing stores,shoes beauty salons barbering and styling. Check cashing and nice Restaraunts.</t>
   </si>
   <si>
+    <t>Suchig06</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r337752111-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -531,6 +585,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Christopher S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r328410593-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -552,6 +609,9 @@
     <t>I spent over 70 days straight in same room 325. When I made complaints about being charged tax to Daisy apparently she did not inform management. I then was told by her that in order for me to stay I would have to us my girlfriends Id per there 28 day policy. I explained no one had made me do this before and it seemed funny that since I made complaints about crack heads outside my door and being charged tax that now I'm being harassed. I said it would be fraudulent to use my girlfriends Id because she wasn't staying there. I contacted home office I was told I had to leave because of the 28 day policy.T.J. seemed to not be informed of any of these things because she said she was out of town but still told me I had to leave. I informed them under California Law they were supposed to refund my tax and were illegally evicting me. Didn't seem to matter. I was made to leave.I spent weeks playing email tag with T.J. and their GM named Rick Patel who I'm sure is Racek Patel or whatever name he uses. They finally sent me a check refunding my tax proving that I had been there the time I stated and that I was officially a resident. They tried to give me a every excuse to keep me from getting this money back. The we...I spent over 70 days straight in same room 325. When I made complaints about being charged tax to Daisy apparently she did not inform management. I then was told by her that in order for me to stay I would have to us my girlfriends Id per there 28 day policy. I explained no one had made me do this before and it seemed funny that since I made complaints about crack heads outside my door and being charged tax that now I'm being harassed. I said it would be fraudulent to use my girlfriends Id because she wasn't staying there. I contacted home office I was told I had to leave because of the 28 day policy.T.J. seemed to not be informed of any of these things because she said she was out of town but still told me I had to leave. I informed them under California Law they were supposed to refund my tax and were illegally evicting me. Didn't seem to matter. I was made to leave.I spent weeks playing email tag with T.J. and their GM named Rick Patel who I'm sure is Racek Patel or whatever name he uses. They finally sent me a check refunding my tax proving that I had been there the time I stated and that I was officially a resident. They tried to give me a every excuse to keep me from getting this money back. The we didn't know,you checked in out and you just slipped under the radar lies. I have filed suit in this matter for Unlawful eviction and retaliation they have refused to disclose the owner of the motels name after several emails. One thing I will say is Saint,Umberto,Maira,the 2 security guards and the maintenance staff are some of the nicest employees I have met at any motel 6. Overall this motel is one of the better for the value. I just was treated very poorly by management after making legitimate complaints. I honestly liked the staff they were very nice to my son.  Daisy is the only staff member who had a poor attitude and actually laughed when they told me I had to leave. She seems to think she is better than the people that pay for her to have a job.More</t>
   </si>
   <si>
+    <t>Allissia A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r328243291-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -570,6 +630,9 @@
     <t>November 2015</t>
   </si>
   <si>
+    <t>RErich S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r309094133-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -588,6 +651,9 @@
     <t>I am a businessman, and travel daily to different cities and communities in SouthernCalifornia every day. Since Blackstone bought the Motel chain, and remodeled the rooms, it is a completely different experience.Because almost the entire chain is remodeled, the only discerning difference between is the quality of management, cleanliness, and the customer service provided to the guests.I can say without hesitation that this is the most well managed Motel 6 in the Los Angeles area. The manager, J.T. is outstanding. With her exceptional understanding of management skills, and the forgotten art of customer service, she has put together an exceptional team. from the front desk to housekeeping, and maintenance.The exceptional individuals at the front desk, Humberto, Daisy, Mueira, and Saint are pleasant, professional, and very helpful. It takes these kind of employees to make a motel feel like home.More</t>
   </si>
   <si>
+    <t>AbigailCheng</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r288268850-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -609,6 +675,9 @@
     <t>We were in room 311 which was a Non Smoking room. We get there and it smells like smoke. The people next to us had music on day and night which made it very uncomfortable plus their kids were crying half the time. We did not appreciate that. The pool was also a big NO NO. Peoples kids were there everyday for hours. The water was disgusting. I really wanted to go in and enjoy it but kids were very disrespectful. Mothers wouldn't say anything. The room was a really good size for two. We got our towels changed every day. The staff greeted us and we're quite nice but there were some gangsters in the rooms. They said Hi to us and were pretty nice  didn't show any bad intentions. But we would of really enjoyed our stay without the neighbors and the kids in the pool.More</t>
   </si>
   <si>
+    <t>joceline26v</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r281273897-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -627,6 +696,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>Joshua D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r270642755-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -645,6 +717,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Dan4cs6s</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r257918942-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -666,6 +741,9 @@
     <t>I've only written one other review in the last 5 years and it was for a good stay. This Motel... my butt stuck to the toilet. Enough said? Its true. I think it was from all the disinfectant spray used in the air. Do you know how the air/heat sometimes can have a musty smell? I turned it on hoping to neutralize the situation. It did not work. I had booked seven nights and did not want room service until I asked as I did not want anyone to wake me. The "rule" (their words) ...I had to accept room service every two days or could not book the room because my dog was with me. I've been traveling constantly with my dog for years and this was a first. Hospitality you say? Do you know that motel feeling when you wake up in the morning and feel greasy from a nights sleep? Yep, and my wake up call (which I did not want) was housekeeping banging the walls with the broom next door around 9:30am because that resident left early. I had very little sleep from the traffic noise. It was major. I lasted one night and said I wanted a refund. It was no problem but you would think they would have ask me why? Nada...More</t>
   </si>
   <si>
+    <t>David H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r255500776-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -702,6 +780,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>Edgardmed</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r251398275-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -717,6 +798,9 @@
     <t>This ,Motel is without a doubt...the best Motel 6, I've ever stayed at...The management and the staff, are always so helpful, and polite. The rooms are clean and updated overall good experience I will recommend this motel 6 you won't be disappointed with your experience at this location the property is very nice</t>
   </si>
   <si>
+    <t>legendaryme</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r243142994-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -732,6 +816,9 @@
     <t>The staff was friendly,respectful, and very courteous.Upon entering,I thought that it would be a problem accommodating my pet dog but,Humbeno assured me that everything would be ok and it worked out fine. They go to great lengths to please  their customers. This will definitely be my "home away from home" every time I stop here.</t>
   </si>
   <si>
+    <t>HotelGuruGirl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r237095520-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -750,6 +837,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>Pavel G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r236522541-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -768,6 +858,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Tuesday L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r234780529-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -783,6 +876,9 @@
     <t>Convenient.Close to a small shopping market and not far from retail. Front Desk wasn't to organized with communication for I had two separate reservations, paid for the second one the day of check out,and was still hounded for check out reminders. But in return they did credit me back 30% of what I paid for my trouble at check out. Cool place to stay!</t>
   </si>
   <si>
+    <t>MrMeToo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r214776903-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -801,6 +897,9 @@
     <t>The price was hard to beat. But it is a so-so area. There seems to me there are alot extended guests here. It can me a mixed crowd.  There is at times people just "chillin" out in the parking lot which surrounds the whole building. One night after getting in my car to go out ... A cop car pulls up and demands me to get out and decides to search my car while me sitting in the back of the cop car ( i had to get a selfie !)  This is fine. It just shows that this area is not the best . They mentioned they do this because they get calls about people in the parking lot. Someone I know asked me " isn't that where meth heads shoot up in the back ?" Its an area in transition. They dont have irons. Whether you choose smoking or non... Only when you go in you'll know.Thats why its cheaper. If you just need a bed&amp; shower and head out the door its a deal. Dont look for any amenities if value here.More</t>
   </si>
   <si>
+    <t>hunnybunchbaybee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r213562866-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -816,6 +915,9 @@
     <t>My stay here at motel 6 was very great especially the frontdesk gsr. Humberto was very polite and helpful. also all the staff and housekeepers were very helpful when I needed anything. the parking is great big spaces for trailer and rv's near by restaurants the room was bad new tv newbeds they have a pool oh yeah and dominos pizza delivers</t>
   </si>
   <si>
+    <t>bruceaheilig</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r210312833-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -831,6 +933,9 @@
     <t>My stay here has been a great experience. The staff treats you with friendliness and respect. I have had an extended stay here and everyone from housekeeping, frontdesk, maintenance and supervisors have been amazing to me. Doing everything they can to make my stay enjoyable. At the front desk Kevin, Mildred, Jamie and Maira have gone out of their way to provide me with whatever I may need to make my stay as comfortable as possible. Supervisor TJ has handled all my needs with professionalism and respect. Thank you to everyone at Bellflower,  CA Motel 6.</t>
   </si>
   <si>
+    <t>grace_562</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r197797679-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -846,6 +951,9 @@
     <t>Very Polite Services and always asking how are day is , amaizing always makes someones morning (; There always helping someone when they need it . And the rooms are like spotless clean and the house keepers are very hulariouse (; would love to stay here . !!!</t>
   </si>
   <si>
+    <t>dadroy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r196871824-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -864,6 +972,9 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>LATICE</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r196702014-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -879,6 +990,9 @@
     <t>I have to say that this Motel 6 has an amazing team. The way they value their customers and make sure their taken care of, makes you wish every other establishment valued their customers the same way. The staff make sure you have what you need, and i must say Mayra has excellent customer service and her Manager TJ, is awesome. She makes you feel welcome, she always has a smile on her face. My overall stay was great. The rooms are very clean and well maintained. I would recommend others to come and stay..</t>
   </si>
   <si>
+    <t>Valerie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r181629351-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -900,6 +1014,9 @@
     <t>I am writing to thank the Manager Jorge, the Asst. Manager, TJ and the Staff for your outstanding service. My husband and I were looking for a clean, safe Motel for our family to reside in temporarily and were a bit nervous to come to Motel 6. I must admit my fears were put to rest rather quickly! Our room was clean, the service is superb and I have yet to see a bug! Jorge, the Manager is amazing! He goes out of his way to ensure you are not only a happy customer, but more important, a repeat customer. TJ, the Assistant is also wonderful and goes out of her way to make our family feel welcome! Whenever I call the office and need assistance, the staff is on it right away and makes us feel so valued, which is rare in a Motel. Thank you once again, Jorge, TJ and amazing staff, for always being so wonderful. We appreciate your service and most important, are so thankful for the security here. We always feel safe and valued. I highly recommend this Motel!More</t>
   </si>
   <si>
+    <t>t c</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r181593881-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -924,6 +1041,9 @@
     <t>Even though I must say the price here is the lowest around, it is an excellent reminder of "You get what you pay for!" The beds were not even close to those of other Motel 6 motels. The furniture didn't give one the feeling of 'good enough to use.' The carpeting was, well I'll just call it "Rugs with a chance of black feet.' The bathroom was just 'touched up.' Stains on the sheets and the rug made me tense for the entire stay, all three of them. I had no alternative in place or I would have left and not returned each time I had done so. The rooms didn't improve, but on the bright side, they didn't get any worse. The front office staff were more like bank tellers with a side of cold, except for the one that does the late night shift. He was very professional, and I wondered what he was doing there, then! The parking lot is not the best, being next to the freeway, and the model for transient begging. Get an outside room if you can, to keep an eye on your car. The location in general, and the price was why I stayed here. It's roulette when it comes to the rooms. Keep your socks on when they leave the light on.More</t>
   </si>
   <si>
+    <t>dwightdwight</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r173903197-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -939,6 +1059,9 @@
     <t>This ,Motel is without a doubt...the best Motel 6, I've ever stayed at...The management and the staff, are always so helpful, and polite.        Believe me if ever there was a problem...with plumbing, electrical or anything of any significence,      The management or staff are always...Johnny on the spot when it comes to solving an issue, that might arrise. These guys really do care about u ...as far as being...always riteike being and feeling ok...</t>
   </si>
   <si>
+    <t>Mammatravels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r118253792-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -954,6 +1077,9 @@
     <t>The manager at this particular location is rude and plays favorites with his guest. He seams to cater to the people that actually live in this hotel, not those who are just visiting! The houskeepers are lazy and I had to beg for my room to get cleaned! This place is filthy with shady people, parties and loud craziness!</t>
   </si>
   <si>
+    <t>SanDiegoArmymom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r91138948-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
   </si>
   <si>
@@ -970,6 +1096,9 @@
   </si>
   <si>
     <t>December 2010</t>
+  </si>
+  <si>
+    <t>elchico74</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32059-d244420-r32220084-Motel_6_Los_Angeles_Bellflower-Bellflower_California.html</t>
@@ -1525,43 +1654,47 @@
       <c r="A2" t="n">
         <v>25022</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="n">
@@ -1579,50 +1712,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>25022</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1636,50 +1773,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>25022</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1693,50 +1834,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>25022</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -1756,50 +1901,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>25022</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1813,50 +1962,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>25022</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
         <v>84</v>
       </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>79</v>
-      </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1876,50 +2029,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>25022</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1933,50 +2090,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>25022</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1990,50 +2151,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>25022</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="O10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2051,50 +2216,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>25022</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2112,50 +2281,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>25022</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2173,50 +2346,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>25022</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>128</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="L13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="O13" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2234,56 +2411,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="X13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="Y13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>25022</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="J14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="K14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="L14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="O14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="n">
@@ -2303,50 +2484,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>25022</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="K15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="L15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="O15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2360,50 +2545,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>25022</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>152</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="J16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -2421,50 +2610,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>25022</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>160</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="J17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="K17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="L17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="O17" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2484,50 +2677,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>25022</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="J18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -2541,50 +2738,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>25022</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="J19" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="K19" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="L19" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="O19" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P19" t="n">
         <v>4</v>
@@ -2604,50 +2805,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>25022</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>179</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="J20" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="K20" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="L20" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="O20" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2665,50 +2870,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>25022</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>187</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="J21" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="K21" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="L21" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
       </c>
       <c r="N21" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="O21" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -2728,50 +2937,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>25022</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>195</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="J22" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
       </c>
       <c r="N22" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="O22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2785,50 +2998,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>25022</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>202</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="J23" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="K23" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="O23" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -2846,50 +3063,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>25022</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>209</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="J24" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="K24" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="L24" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2907,50 +3128,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>25022</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>217</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="J25" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="K25" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="L25" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="O25" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -2964,50 +3189,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>25022</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>224</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="J26" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="K26" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="L26" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="O26" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3021,50 +3250,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>25022</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>231</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J27" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="K27" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="L27" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="O27" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -3084,50 +3317,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>25022</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>239</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="J28" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="K28" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="L28" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="O28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3145,50 +3382,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>25022</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>239</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="J29" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="K29" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="L29" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="O29" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3208,41 +3449,45 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>25022</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>252</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="J30" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="K30" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="L30" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
@@ -3271,41 +3516,45 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>25022</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>258</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="J31" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="K31" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="L31" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
@@ -3334,50 +3583,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>25022</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>264</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="J32" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="K32" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="L32" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="O32" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3391,50 +3644,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>25022</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>271</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="J33" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="K33" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="L33" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -3452,41 +3709,45 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>25022</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>278</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="J34" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="K34" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="L34" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
@@ -3515,41 +3776,45 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>25022</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>284</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="J35" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="K35" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="L35" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
@@ -3578,41 +3843,45 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>25022</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>291</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="J36" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="K36" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="L36" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
@@ -3641,41 +3910,45 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>25022</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>297</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="J37" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="K37" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="L37" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
@@ -3704,41 +3977,45 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>25022</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>303</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="J38" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="K38" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="L38" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
@@ -3767,50 +4044,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>25022</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>309</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="J39" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="K39" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="L39" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="O39" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -3834,41 +4115,45 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>25022</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>316</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>280</v>
+        <v>317</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="J40" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="K40" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="L40" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
@@ -3897,50 +4182,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>25022</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>322</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="J41" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="K41" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="L41" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="O41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P41" t="n">
         <v>5</v>
@@ -3962,50 +4251,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>25022</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>330</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="J42" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="K42" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
       <c r="N42" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="O42" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P42" t="n">
         <v>1</v>
@@ -4027,47 +4320,51 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="X42" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="Y42" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>25022</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>339</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="J43" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="K43" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="L43" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="M43" t="n">
         <v>5</v>
@@ -4096,41 +4393,45 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>25022</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>345</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>305</v>
+        <v>346</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="J44" t="s">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="K44" t="s">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="L44" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
       <c r="M44" t="n">
         <v>2</v>
@@ -4159,50 +4460,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>309</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>25022</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>351</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>311</v>
+        <v>353</v>
       </c>
       <c r="J45" t="s">
-        <v>312</v>
+        <v>354</v>
       </c>
       <c r="K45" t="s">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>315</v>
+        <v>357</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="n">
         <v>3</v>
@@ -4226,50 +4531,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>314</v>
+        <v>356</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>25022</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>358</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>316</v>
+        <v>359</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>317</v>
+        <v>360</v>
       </c>
       <c r="J46" t="s">
-        <v>318</v>
+        <v>361</v>
       </c>
       <c r="K46" t="s">
-        <v>319</v>
+        <v>362</v>
       </c>
       <c r="L46" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>321</v>
+        <v>364</v>
       </c>
       <c r="O46" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P46" t="n">
         <v>1</v>
@@ -4293,41 +4602,45 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>320</v>
+        <v>363</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>25022</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>145</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>322</v>
+        <v>365</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="J47" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="K47" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="L47" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
@@ -4346,41 +4659,45 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>25022</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>145</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="J48" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="K48" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="L48" t="s">
-        <v>331</v>
+        <v>374</v>
       </c>
       <c r="M48" t="n">
         <v>2</v>
@@ -4399,7 +4716,7 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>332</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
